--- a/Samples/roadBasicInfo.xlsx
+++ b/Samples/roadBasicInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{60D10937-A367-4F21-9380-60E79A0613D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:100000_{60D10937-A367-4F21-9380-60E79A0613D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1006D160-AB64-4467-BF1A-C63DFB3E608E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Road Section</t>
   </si>
   <si>
-    <t>Road Type (Speed Limit)</t>
-  </si>
-  <si>
     <t>Road Type (Major Minor)</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Minor</t>
+  </si>
+  <si>
+    <t>Road Type</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,39 +550,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>50</v>
@@ -593,22 +593,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -619,22 +619,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -645,22 +645,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -671,22 +671,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>50</v>
@@ -697,22 +697,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -723,22 +723,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>50</v>
@@ -749,22 +749,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -775,22 +775,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -801,22 +801,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>50</v>
@@ -827,22 +827,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -853,22 +853,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -879,22 +879,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -905,22 +905,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -931,22 +931,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -957,22 +957,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>50</v>
@@ -983,22 +983,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -1009,22 +1009,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>50</v>
@@ -1035,22 +1035,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20">
         <v>50</v>
@@ -1061,22 +1061,22 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -1087,22 +1087,22 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>50</v>
@@ -1139,22 +1139,22 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>50</v>
@@ -1165,22 +1165,22 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25">
         <v>50</v>
@@ -1191,22 +1191,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26">
         <v>50</v>
